--- a/output_data/charts/facilities-DelawareCounty-0500000US39041.xlsx
+++ b/output_data/charts/facilities-DelawareCounty-0500000US39041.xlsx
@@ -519,7 +519,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,10 +898,10 @@
                   <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>250</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>126</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2290,13 +2290,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
